--- a/WIP/Users/TungDT/Veazy_Risk Management_EN.xlsx
+++ b/WIP/Users/TungDT/Veazy_Risk Management_EN.xlsx
@@ -61,8 +61,8 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="rau - Personal View" guid="{76BCA86B-7D30-4D0C-A3AD-F5EB7D88CCD8}" mergeInterval="0" personalView="1" maximized="1" windowWidth="796" windowHeight="464" activeSheetId="1"/>
     <customWorkbookView name="hanght - Personal View" guid="{6AAB2365-435B-4727-BB0B-AAE57F204611}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1012" windowHeight="571" activeSheetId="1"/>
-    <customWorkbookView name="rau - Personal View" guid="{76BCA86B-7D30-4D0C-A3AD-F5EB7D88CCD8}" mergeInterval="0" personalView="1" maximized="1" windowWidth="796" windowHeight="464" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -1858,18 +1858,6 @@
     <t>R06</t>
   </si>
   <si>
-    <t>Members are distracted by the JLPT exam</t>
-  </si>
-  <si>
-    <t>Member cannot concentrate on job, tasks are being delayed.</t>
-  </si>
-  <si>
-    <t>Increase efforts after examination</t>
-  </si>
-  <si>
-    <t>PM schedules project to avoid the examination</t>
-  </si>
-  <si>
     <t>R07</t>
   </si>
   <si>
@@ -1889,6 +1877,18 @@
   </si>
   <si>
     <t>Member cannot afford requirements, low quality work</t>
+  </si>
+  <si>
+    <t>Member conflict</t>
+  </si>
+  <si>
+    <t>Member can be misunderstand each other</t>
+  </si>
+  <si>
+    <t>Hold team building to increase member's relationship</t>
+  </si>
+  <si>
+    <t>conciliate the conflict</t>
   </si>
 </sst>
 </file>
@@ -2859,18 +2859,111 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2879,99 +2972,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3384,20 +3384,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="159" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="195"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="161"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3515,161 +3515,161 @@
     <row r="9" spans="1:18" s="18" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="159" t="s">
+      <c r="C9" s="164" t="s">
         <v>149</v>
       </c>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="159"/>
-      <c r="I9" s="159"/>
-      <c r="J9" s="159"/>
-      <c r="K9" s="159"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:18" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="159" t="s">
+      <c r="C10" s="164" t="s">
         <v>150</v>
       </c>
-      <c r="D10" s="159"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="159"/>
-      <c r="J10" s="159"/>
-      <c r="K10" s="159"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="164"/>
       <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:18" s="18" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="159" t="s">
+      <c r="C11" s="164" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="160"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="160"/>
-      <c r="K11" s="160"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="165"/>
+      <c r="I11" s="165"/>
+      <c r="J11" s="165"/>
+      <c r="K11" s="165"/>
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:18" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="159" t="s">
+      <c r="C12" s="164" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="160"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="160"/>
-      <c r="K12" s="160"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="165"/>
+      <c r="K12" s="165"/>
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="196" t="s">
+      <c r="C13" s="162" t="s">
         <v>153</v>
       </c>
-      <c r="D13" s="196"/>
-      <c r="E13" s="196"/>
-      <c r="F13" s="196"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="196"/>
-      <c r="I13" s="196"/>
-      <c r="J13" s="196"/>
-      <c r="K13" s="196"/>
+      <c r="D13" s="162"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="162"/>
+      <c r="K13" s="162"/>
       <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="20"/>
-      <c r="C14" s="185" t="s">
+      <c r="C14" s="163" t="s">
         <v>154</v>
       </c>
-      <c r="D14" s="185"/>
-      <c r="E14" s="185"/>
-      <c r="F14" s="185"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="185"/>
-      <c r="J14" s="185"/>
-      <c r="K14" s="185"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
       <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:18" s="18" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="159" t="s">
+      <c r="C15" s="164" t="s">
         <v>199</v>
       </c>
-      <c r="D15" s="160"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="160"/>
-      <c r="K15" s="160"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="165"/>
+      <c r="K15" s="165"/>
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:18" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="159" t="s">
+      <c r="C16" s="164" t="s">
         <v>155</v>
       </c>
-      <c r="D16" s="160"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
-      <c r="K16" s="160"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
       <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12" s="18" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="159" t="s">
+      <c r="C17" s="164" t="s">
         <v>156</v>
       </c>
-      <c r="D17" s="160"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="160"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="160"/>
-      <c r="K17" s="160"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="165"/>
+      <c r="K17" s="165"/>
       <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:12" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
-      <c r="C18" s="159" t="s">
+      <c r="C18" s="164" t="s">
         <v>157</v>
       </c>
-      <c r="D18" s="160"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="160"/>
-      <c r="K18" s="160"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
       <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3710,16 +3710,16 @@
       <c r="C21" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="159" t="s">
+      <c r="D21" s="164" t="s">
         <v>158</v>
       </c>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="160"/>
-      <c r="J21" s="160"/>
-      <c r="K21" s="160"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="165"/>
+      <c r="K21" s="165"/>
       <c r="L21" s="30"/>
     </row>
     <row r="22" spans="1:12" s="31" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3728,16 +3728,16 @@
       <c r="C22" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="159" t="s">
+      <c r="D22" s="164" t="s">
         <v>159</v>
       </c>
-      <c r="E22" s="160"/>
-      <c r="F22" s="160"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="160"/>
-      <c r="K22" s="160"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="165"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
       <c r="L22" s="30"/>
     </row>
     <row r="23" spans="1:12" s="31" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3745,15 +3745,15 @@
       <c r="B23" s="32"/>
       <c r="C23" s="33"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="159" t="s">
+      <c r="E23" s="164" t="s">
         <v>160</v>
       </c>
-      <c r="F23" s="185"/>
-      <c r="G23" s="185"/>
-      <c r="H23" s="185"/>
-      <c r="I23" s="185"/>
-      <c r="J23" s="185"/>
-      <c r="K23" s="185"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="163"/>
+      <c r="K23" s="163"/>
       <c r="L23" s="34"/>
     </row>
     <row r="24" spans="1:12" s="31" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3777,15 +3777,15 @@
       <c r="D25" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="178" t="s">
+      <c r="E25" s="190" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="179"/>
-      <c r="G25" s="179"/>
-      <c r="H25" s="179"/>
-      <c r="I25" s="179"/>
-      <c r="J25" s="179"/>
-      <c r="K25" s="180"/>
+      <c r="F25" s="191"/>
+      <c r="G25" s="191"/>
+      <c r="H25" s="191"/>
+      <c r="I25" s="191"/>
+      <c r="J25" s="191"/>
+      <c r="K25" s="192"/>
       <c r="L25" s="39"/>
     </row>
     <row r="26" spans="1:12" s="46" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -3795,15 +3795,15 @@
       <c r="D26" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="E26" s="181" t="s">
+      <c r="E26" s="170" t="s">
         <v>141</v>
       </c>
-      <c r="F26" s="182"/>
-      <c r="G26" s="182"/>
-      <c r="H26" s="182"/>
-      <c r="I26" s="182"/>
-      <c r="J26" s="182"/>
-      <c r="K26" s="183"/>
+      <c r="F26" s="171"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="171"/>
+      <c r="J26" s="171"/>
+      <c r="K26" s="172"/>
       <c r="L26" s="45"/>
     </row>
     <row r="27" spans="1:12" s="46" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -3813,15 +3813,15 @@
       <c r="D27" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="E27" s="181" t="s">
+      <c r="E27" s="170" t="s">
         <v>142</v>
       </c>
-      <c r="F27" s="182"/>
-      <c r="G27" s="182"/>
-      <c r="H27" s="182"/>
-      <c r="I27" s="182"/>
-      <c r="J27" s="182"/>
-      <c r="K27" s="183"/>
+      <c r="F27" s="171"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="171"/>
+      <c r="K27" s="172"/>
       <c r="L27" s="45"/>
     </row>
     <row r="28" spans="1:12" s="46" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3831,15 +3831,15 @@
       <c r="D28" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="181" t="s">
+      <c r="E28" s="170" t="s">
         <v>162</v>
       </c>
-      <c r="F28" s="182"/>
-      <c r="G28" s="182"/>
-      <c r="H28" s="182"/>
-      <c r="I28" s="182"/>
-      <c r="J28" s="182"/>
-      <c r="K28" s="183"/>
+      <c r="F28" s="171"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="171"/>
+      <c r="J28" s="171"/>
+      <c r="K28" s="172"/>
       <c r="L28" s="45"/>
     </row>
     <row r="29" spans="1:12" s="46" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3861,15 +3861,15 @@
       <c r="B30" s="32"/>
       <c r="C30" s="33"/>
       <c r="D30" s="22"/>
-      <c r="E30" s="185" t="s">
+      <c r="E30" s="163" t="s">
         <v>163</v>
       </c>
-      <c r="F30" s="185"/>
-      <c r="G30" s="185"/>
-      <c r="H30" s="185"/>
-      <c r="I30" s="185"/>
-      <c r="J30" s="185"/>
-      <c r="K30" s="185"/>
+      <c r="F30" s="163"/>
+      <c r="G30" s="163"/>
+      <c r="H30" s="163"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="163"/>
+      <c r="K30" s="163"/>
       <c r="L30" s="34"/>
     </row>
     <row r="31" spans="1:12" s="40" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3882,18 +3882,18 @@
       <c r="E31" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="166" t="s">
+      <c r="F31" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="166"/>
-      <c r="H31" s="166" t="s">
+      <c r="G31" s="177"/>
+      <c r="H31" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="I31" s="166"/>
-      <c r="J31" s="166" t="s">
+      <c r="I31" s="177"/>
+      <c r="J31" s="177" t="s">
         <v>37</v>
       </c>
-      <c r="K31" s="166"/>
+      <c r="K31" s="177"/>
       <c r="L31" s="39"/>
     </row>
     <row r="32" spans="1:12" s="62" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3906,18 +3906,18 @@
       <c r="E32" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="F32" s="192" t="s">
+      <c r="F32" s="169" t="s">
         <v>105</v>
       </c>
-      <c r="G32" s="192"/>
-      <c r="H32" s="192" t="s">
+      <c r="G32" s="169"/>
+      <c r="H32" s="169" t="s">
         <v>107</v>
       </c>
-      <c r="I32" s="192"/>
-      <c r="J32" s="192" t="s">
+      <c r="I32" s="169"/>
+      <c r="J32" s="169" t="s">
         <v>108</v>
       </c>
-      <c r="K32" s="192"/>
+      <c r="K32" s="169"/>
       <c r="L32" s="61"/>
     </row>
     <row r="33" spans="1:12" s="40" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
@@ -3930,18 +3930,18 @@
       <c r="E33" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="F33" s="192" t="s">
+      <c r="F33" s="169" t="s">
         <v>112</v>
       </c>
-      <c r="G33" s="192"/>
-      <c r="H33" s="192" t="s">
+      <c r="G33" s="169"/>
+      <c r="H33" s="169" t="s">
         <v>111</v>
       </c>
-      <c r="I33" s="192"/>
-      <c r="J33" s="192" t="s">
+      <c r="I33" s="169"/>
+      <c r="J33" s="169" t="s">
         <v>110</v>
       </c>
-      <c r="K33" s="192"/>
+      <c r="K33" s="169"/>
       <c r="L33" s="39"/>
     </row>
     <row r="34" spans="1:12" s="40" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3954,18 +3954,18 @@
       <c r="E34" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="F34" s="184" t="s">
+      <c r="F34" s="168" t="s">
         <v>113</v>
       </c>
-      <c r="G34" s="184"/>
-      <c r="H34" s="184" t="s">
+      <c r="G34" s="168"/>
+      <c r="H34" s="168" t="s">
         <v>106</v>
       </c>
-      <c r="I34" s="184"/>
-      <c r="J34" s="184" t="s">
+      <c r="I34" s="168"/>
+      <c r="J34" s="168" t="s">
         <v>109</v>
       </c>
-      <c r="K34" s="184"/>
+      <c r="K34" s="168"/>
       <c r="L34" s="39"/>
     </row>
     <row r="35" spans="1:12" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3987,15 +3987,15 @@
       <c r="B36" s="32"/>
       <c r="C36" s="33"/>
       <c r="D36" s="22"/>
-      <c r="E36" s="159" t="s">
+      <c r="E36" s="164" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="185"/>
-      <c r="G36" s="185"/>
-      <c r="H36" s="185"/>
-      <c r="I36" s="185"/>
-      <c r="J36" s="185"/>
-      <c r="K36" s="185"/>
+      <c r="F36" s="163"/>
+      <c r="G36" s="163"/>
+      <c r="H36" s="163"/>
+      <c r="I36" s="163"/>
+      <c r="J36" s="163"/>
+      <c r="K36" s="163"/>
       <c r="L36" s="34"/>
     </row>
     <row r="37" spans="1:12" s="46" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4018,10 +4018,10 @@
       <c r="C38" s="67"/>
       <c r="D38" s="67"/>
       <c r="E38" s="68"/>
-      <c r="F38" s="186" t="s">
+      <c r="F38" s="173" t="s">
         <v>42</v>
       </c>
-      <c r="G38" s="187"/>
+      <c r="G38" s="174"/>
       <c r="H38" s="69" t="s">
         <v>4</v>
       </c>
@@ -4035,10 +4035,10 @@
       <c r="B39" s="70"/>
       <c r="C39" s="70"/>
       <c r="D39" s="70"/>
-      <c r="F39" s="188" t="s">
+      <c r="F39" s="175" t="s">
         <v>100</v>
       </c>
-      <c r="G39" s="189"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="74" t="s">
         <v>5</v>
       </c>
@@ -4052,10 +4052,10 @@
       <c r="B40" s="70"/>
       <c r="C40" s="70"/>
       <c r="D40" s="70"/>
-      <c r="F40" s="190" t="s">
+      <c r="F40" s="166" t="s">
         <v>98</v>
       </c>
-      <c r="G40" s="191"/>
+      <c r="G40" s="167"/>
       <c r="H40" s="75" t="s">
         <v>32</v>
       </c>
@@ -4070,10 +4070,10 @@
       <c r="C41" s="70"/>
       <c r="D41" s="70"/>
       <c r="E41" s="70"/>
-      <c r="F41" s="176" t="s">
+      <c r="F41" s="188" t="s">
         <v>99</v>
       </c>
-      <c r="G41" s="177"/>
+      <c r="G41" s="189"/>
       <c r="H41" s="76" t="s">
         <v>33</v>
       </c>
@@ -4087,15 +4087,15 @@
       <c r="B42" s="48"/>
       <c r="C42" s="50"/>
       <c r="D42" s="48"/>
-      <c r="E42" s="170" t="s">
+      <c r="E42" s="182" t="s">
         <v>143</v>
       </c>
-      <c r="F42" s="171"/>
-      <c r="G42" s="171"/>
-      <c r="H42" s="171"/>
-      <c r="I42" s="171"/>
-      <c r="J42" s="171"/>
-      <c r="K42" s="171"/>
+      <c r="F42" s="183"/>
+      <c r="G42" s="183"/>
+      <c r="H42" s="183"/>
+      <c r="I42" s="183"/>
+      <c r="J42" s="183"/>
+      <c r="K42" s="183"/>
       <c r="L42" s="45"/>
     </row>
     <row r="43" spans="1:12" s="26" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4120,16 +4120,16 @@
       <c r="C44" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="159" t="s">
+      <c r="D44" s="164" t="s">
         <v>165</v>
       </c>
-      <c r="E44" s="160"/>
-      <c r="F44" s="160"/>
-      <c r="G44" s="160"/>
-      <c r="H44" s="160"/>
-      <c r="I44" s="160"/>
-      <c r="J44" s="160"/>
-      <c r="K44" s="160"/>
+      <c r="E44" s="165"/>
+      <c r="F44" s="165"/>
+      <c r="G44" s="165"/>
+      <c r="H44" s="165"/>
+      <c r="I44" s="165"/>
+      <c r="J44" s="165"/>
+      <c r="K44" s="165"/>
       <c r="L44" s="30"/>
     </row>
     <row r="45" spans="1:12" s="46" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4139,17 +4139,17 @@
       <c r="D45" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="E45" s="172" t="s">
+      <c r="E45" s="184" t="s">
         <v>44</v>
       </c>
-      <c r="F45" s="172"/>
-      <c r="G45" s="172"/>
-      <c r="H45" s="172"/>
-      <c r="I45" s="172"/>
-      <c r="J45" s="172" t="s">
+      <c r="F45" s="184"/>
+      <c r="G45" s="184"/>
+      <c r="H45" s="184"/>
+      <c r="I45" s="184"/>
+      <c r="J45" s="184" t="s">
         <v>47</v>
       </c>
-      <c r="K45" s="172"/>
+      <c r="K45" s="184"/>
       <c r="L45" s="45"/>
     </row>
     <row r="46" spans="1:12" s="46" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4159,17 +4159,17 @@
       <c r="D46" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="E46" s="173" t="s">
+      <c r="E46" s="185" t="s">
         <v>147</v>
       </c>
-      <c r="F46" s="174"/>
-      <c r="G46" s="174"/>
-      <c r="H46" s="174"/>
-      <c r="I46" s="175"/>
-      <c r="J46" s="162" t="s">
+      <c r="F46" s="186"/>
+      <c r="G46" s="186"/>
+      <c r="H46" s="186"/>
+      <c r="I46" s="187"/>
+      <c r="J46" s="179" t="s">
         <v>46</v>
       </c>
-      <c r="K46" s="162"/>
+      <c r="K46" s="179"/>
       <c r="L46" s="45"/>
     </row>
     <row r="47" spans="1:12" s="7" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4179,15 +4179,15 @@
       <c r="D47" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="E47" s="161" t="s">
+      <c r="E47" s="193" t="s">
         <v>146</v>
       </c>
-      <c r="F47" s="161"/>
-      <c r="G47" s="161"/>
-      <c r="H47" s="161"/>
-      <c r="I47" s="161"/>
-      <c r="J47" s="163"/>
-      <c r="K47" s="163"/>
+      <c r="F47" s="193"/>
+      <c r="G47" s="193"/>
+      <c r="H47" s="193"/>
+      <c r="I47" s="193"/>
+      <c r="J47" s="194"/>
+      <c r="K47" s="194"/>
       <c r="L47" s="6"/>
     </row>
     <row r="48" spans="1:12" s="7" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4197,15 +4197,15 @@
       <c r="D48" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="161" t="s">
+      <c r="E48" s="193" t="s">
         <v>120</v>
       </c>
-      <c r="F48" s="161"/>
-      <c r="G48" s="161"/>
-      <c r="H48" s="161"/>
-      <c r="I48" s="161"/>
-      <c r="J48" s="163"/>
-      <c r="K48" s="163"/>
+      <c r="F48" s="193"/>
+      <c r="G48" s="193"/>
+      <c r="H48" s="193"/>
+      <c r="I48" s="193"/>
+      <c r="J48" s="194"/>
+      <c r="K48" s="194"/>
       <c r="L48" s="6"/>
     </row>
     <row r="49" spans="1:12" s="46" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4215,17 +4215,17 @@
       <c r="D49" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="E49" s="162" t="s">
+      <c r="E49" s="179" t="s">
         <v>50</v>
       </c>
-      <c r="F49" s="162"/>
-      <c r="G49" s="162"/>
-      <c r="H49" s="162"/>
-      <c r="I49" s="162"/>
-      <c r="J49" s="162" t="s">
+      <c r="F49" s="179"/>
+      <c r="G49" s="179"/>
+      <c r="H49" s="179"/>
+      <c r="I49" s="179"/>
+      <c r="J49" s="179" t="s">
         <v>51</v>
       </c>
-      <c r="K49" s="162"/>
+      <c r="K49" s="179"/>
       <c r="L49" s="45"/>
     </row>
     <row r="50" spans="1:12" s="88" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4233,15 +4233,15 @@
       <c r="B50" s="32"/>
       <c r="C50" s="33"/>
       <c r="D50" s="22"/>
-      <c r="E50" s="168" t="s">
+      <c r="E50" s="180" t="s">
         <v>166</v>
       </c>
-      <c r="F50" s="169"/>
-      <c r="G50" s="169"/>
-      <c r="H50" s="169"/>
-      <c r="I50" s="169"/>
-      <c r="J50" s="169"/>
-      <c r="K50" s="169"/>
+      <c r="F50" s="181"/>
+      <c r="G50" s="181"/>
+      <c r="H50" s="181"/>
+      <c r="I50" s="181"/>
+      <c r="J50" s="181"/>
+      <c r="K50" s="181"/>
       <c r="L50" s="87"/>
     </row>
     <row r="51" spans="1:12" s="88" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4249,15 +4249,15 @@
       <c r="B51" s="32"/>
       <c r="C51" s="33"/>
       <c r="D51" s="22"/>
-      <c r="E51" s="164" t="s">
+      <c r="E51" s="195" t="s">
         <v>167</v>
       </c>
-      <c r="F51" s="165"/>
-      <c r="G51" s="165"/>
-      <c r="H51" s="165"/>
-      <c r="I51" s="165"/>
-      <c r="J51" s="165"/>
-      <c r="K51" s="165"/>
+      <c r="F51" s="196"/>
+      <c r="G51" s="196"/>
+      <c r="H51" s="196"/>
+      <c r="I51" s="196"/>
+      <c r="J51" s="196"/>
+      <c r="K51" s="196"/>
       <c r="L51" s="87"/>
     </row>
     <row r="52" spans="1:12" s="91" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4265,15 +4265,15 @@
       <c r="B52" s="42"/>
       <c r="C52" s="43"/>
       <c r="D52" s="89"/>
-      <c r="E52" s="167" t="s">
+      <c r="E52" s="178" t="s">
         <v>104</v>
       </c>
-      <c r="F52" s="167"/>
-      <c r="G52" s="167"/>
-      <c r="H52" s="167"/>
-      <c r="I52" s="167"/>
-      <c r="J52" s="167"/>
-      <c r="K52" s="167"/>
+      <c r="F52" s="178"/>
+      <c r="G52" s="178"/>
+      <c r="H52" s="178"/>
+      <c r="I52" s="178"/>
+      <c r="J52" s="178"/>
+      <c r="K52" s="178"/>
       <c r="L52" s="90"/>
     </row>
     <row r="53" spans="1:12" s="81" customFormat="1" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4282,16 +4282,16 @@
       <c r="C53" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="D53" s="159" t="s">
+      <c r="D53" s="164" t="s">
         <v>168</v>
       </c>
-      <c r="E53" s="160"/>
-      <c r="F53" s="160"/>
-      <c r="G53" s="160"/>
-      <c r="H53" s="160"/>
-      <c r="I53" s="160"/>
-      <c r="J53" s="160"/>
-      <c r="K53" s="160"/>
+      <c r="E53" s="165"/>
+      <c r="F53" s="165"/>
+      <c r="G53" s="165"/>
+      <c r="H53" s="165"/>
+      <c r="I53" s="165"/>
+      <c r="J53" s="165"/>
+      <c r="K53" s="165"/>
       <c r="L53" s="30"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -4310,46 +4310,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="E36:K36"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="E28:K28"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="E30:K30"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="E52:K52"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="D44:K44"/>
-    <mergeCell ref="E50:K50"/>
-    <mergeCell ref="E42:K42"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="E45:I45"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="E25:K25"/>
     <mergeCell ref="E26:K26"/>
@@ -4362,6 +4322,46 @@
     <mergeCell ref="J48:K48"/>
     <mergeCell ref="E51:K51"/>
     <mergeCell ref="J47:K47"/>
+    <mergeCell ref="E52:K52"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="D44:K44"/>
+    <mergeCell ref="E50:K50"/>
+    <mergeCell ref="E42:K42"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E28:K28"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="E30:K30"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="E36:K36"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C18:K18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.28000000000000003" right="0.18" top="0.38" bottom="0.63" header="0" footer="0.31"/>
@@ -4376,8 +4376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4571,7 +4571,7 @@
         <v>131</v>
       </c>
       <c r="D5" s="154" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E5" s="102">
         <v>0.3</v>
@@ -4587,23 +4587,23 @@
         <v>6</v>
       </c>
       <c r="I5" s="156" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J5" s="102" t="s">
         <v>26</v>
       </c>
       <c r="K5" s="157"/>
       <c r="L5" s="158" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M5" s="101" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="N5" s="101" t="s">
         <v>201</v>
       </c>
       <c r="O5" s="153">
-        <v>42611</v>
+        <v>42606</v>
       </c>
       <c r="P5" s="101"/>
       <c r="Q5" s="101"/>
@@ -4658,13 +4658,13 @@
         <v>202</v>
       </c>
       <c r="M6" s="101" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="N6" s="101" t="s">
         <v>201</v>
       </c>
       <c r="O6" s="153">
-        <v>42607</v>
+        <v>42606</v>
       </c>
       <c r="P6" s="101"/>
       <c r="Q6" s="101"/>
@@ -4772,7 +4772,7 @@
         <v>201</v>
       </c>
       <c r="O8" s="153">
-        <v>42607</v>
+        <v>42606</v>
       </c>
       <c r="P8" s="101"/>
       <c r="Q8" s="101"/>
@@ -4794,7 +4794,7 @@
         <v>129</v>
       </c>
       <c r="D9" s="154" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E9" s="102">
         <v>0.4</v>
@@ -4810,23 +4810,23 @@
         <v>4</v>
       </c>
       <c r="I9" s="156" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="J9" s="102" t="s">
         <v>26</v>
       </c>
       <c r="K9" s="157"/>
       <c r="L9" s="158" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M9" s="101" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="N9" s="101" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="O9" s="153">
-        <v>42609</v>
+        <v>42606</v>
       </c>
       <c r="P9" s="101"/>
       <c r="Q9" s="101"/>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="10" spans="1:22" s="96" customFormat="1" ht="165.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="154" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B10" s="155" t="s">
         <v>121</v>
@@ -4864,7 +4864,7 @@
         <v>3</v>
       </c>
       <c r="I10" s="156" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="J10" s="102" t="s">
         <v>26</v>
@@ -5934,16 +5934,16 @@
     <sortCondition descending="1" ref="H4:H11"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{6AAB2365-435B-4727-BB0B-AAE57F204611}" showRuler="0" topLeftCell="F1">
-      <selection activeCell="J14" sqref="J14"/>
+    <customSheetView guid="{76BCA86B-7D30-4D0C-A3AD-F5EB7D88CCD8}" showPageBreaks="1" showRuler="0" topLeftCell="O1">
+      <selection activeCell="R3" sqref="R3"/>
       <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0" footer="0"/>
       <pageSetup orientation="landscape" r:id="rId1"/>
       <headerFooter alignWithMargins="0">
         <oddFooter>&amp;L&amp;8 01fe-BM/PM/HDCV/FSOFT v1/0</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{76BCA86B-7D30-4D0C-A3AD-F5EB7D88CCD8}" showPageBreaks="1" showRuler="0" topLeftCell="O1">
-      <selection activeCell="R3" sqref="R3"/>
+    <customSheetView guid="{6AAB2365-435B-4727-BB0B-AAE57F204611}" showRuler="0" topLeftCell="F1">
+      <selection activeCell="J14" sqref="J14"/>
       <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0" footer="0"/>
       <pageSetup orientation="landscape" r:id="rId2"/>
       <headerFooter alignWithMargins="0">
@@ -7373,15 +7373,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005EA2A741C5885C41AB9A358CCBEA8A85" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="253d622f20ce6cf415dd75a347d4701d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="41A7A25E-88C5-415C-AB9A-358CCBEA8A85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6913b3c7c53e7d5478d1a53b351a6d1" ns2:_="">
     <xsd:import namespace="41A7A25E-88C5-415C-AB9A-358CCBEA8A85"/>
@@ -7441,6 +7432,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7450,14 +7450,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DAA1354-1B65-433B-8B6C-AAF4E176B712}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF51A16E-A571-42E9-99B6-47CEA8978068}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7470,6 +7462,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DAA1354-1B65-433B-8B6C-AAF4E176B712}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
